--- a/Guru99/src/main/resources/ExcelFile/data.xlsx
+++ b/Guru99/src/main/resources/ExcelFile/data.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\BNKiller\Guru99(2)\Guru99\src\main\resources\ExcelFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:801_{E7A9C98A-1675-404E-857C-4DE6250E26EA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="4860"/>
+    <workbookView windowHeight="4390" windowWidth="14340" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="AddNew_Cus" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" r:id="rId1" sheetId="1"/>
+    <sheet name="AddNew_Cus" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>TC_ID</t>
   </si>
@@ -128,12 +125,16 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Username must not be blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,35 +191,35 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -235,10 +236,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -273,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -308,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -402,21 +403,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -433,7 +434,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -485,30 +486,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.5703125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="9" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="9" width="12.81640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="15.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="29.54296875" collapsed="true"/>
+    <col min="6" max="6" style="9" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -544,7 +545,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -562,7 +563,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -580,7 +581,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="29" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -596,7 +597,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -610,9 +611,11 @@
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -622,37 +625,43 @@
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.26953125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -738,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -758,7 +767,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -774,7 +783,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -790,7 +799,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -808,9 +817,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="K2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Guru99/src/main/resources/ExcelFile/data.xlsx
+++ b/Guru99/src/main/resources/ExcelFile/data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr documentId="13_ncr:801_{E7A9C98A-1675-404E-857C-4DE6250E26EA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Git-TestNG\Guru99\src\main\resources\ExcelFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="4390" windowWidth="14340" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="5055"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" r:id="rId1" sheetId="1"/>
-    <sheet name="AddNew_Cus" r:id="rId2" sheetId="2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="AddNew_Cus" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>TC_ID</t>
   </si>
@@ -49,9 +52,6 @@
   </si>
   <si>
     <t>ExpectResult</t>
-  </si>
-  <si>
-    <t>Password must not be blank</t>
   </si>
   <si>
     <t>CusName</t>
@@ -124,18 +124,35 @@
     <t>Description</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Username must not be blank</t>
+    <t>all null</t>
+  </si>
+  <si>
+    <t>User or Password is not valid</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V4/manager/Managerhomepage.php</t>
+  </si>
+  <si>
+    <t>validate user</t>
+  </si>
+  <si>
+    <t>validate pass</t>
+  </si>
+  <si>
+    <t>User-ID must not be blank</t>
+  </si>
+  <si>
+    <t>Password must not be blank</t>
+  </si>
+  <si>
+    <t>validate all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +174,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,37 +211,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -236,10 +286,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -274,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -309,7 +359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -403,21 +453,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -434,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -486,35 +536,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="9" width="12.81640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="15.453125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="29.54296875" collapsed="true"/>
-    <col min="6" max="6" style="9" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" width="12.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.5703125" style="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -522,19 +572,19 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row ht="29" r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -542,15 +592,17 @@
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F2" s="7"/>
     </row>
-    <row ht="29" r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
@@ -558,17 +610,19 @@
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row ht="29" r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -576,17 +630,19 @@
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row ht="29" r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -594,109 +650,169 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.26953125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="4.81640625" collapsed="true"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -705,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -720,13 +836,13 @@
         <v>35380</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="2">
         <v>123</v>
@@ -735,19 +851,19 @@
         <v>12345</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>123</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -767,7 +883,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -783,7 +899,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -799,7 +915,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -817,9 +933,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Guru99/src/main/resources/ExcelFile/data.xlsx
+++ b/Guru99/src/main/resources/ExcelFile/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Git-TestNG\Guru99\src\main\resources\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="5055"/>
+    <workbookView windowHeight="5055" windowWidth="25455" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="AddNew_Cus" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" r:id="rId1" sheetId="1"/>
+    <sheet name="AddNew_Cus" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>TC_ID</t>
   </si>
@@ -146,12 +146,19 @@
   </si>
   <si>
     <t>validate all</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Enter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -226,50 +233,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -286,10 +294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -324,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -359,7 +367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -453,21 +461,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -484,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -536,27 +544,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.5703125" style="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="9" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="9" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="13" width="29.5703125" collapsed="true"/>
+    <col min="6" max="6" style="9" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -579,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row ht="30" r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,9 +603,11 @@
       <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row ht="30" r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -613,11 +623,9 @@
       <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+      <c r="F3" s="7"/>
+    </row>
+    <row ht="30" r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -633,11 +641,9 @@
       <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
+      <c r="F4" s="7"/>
+    </row>
+    <row ht="30" r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -653,9 +659,7 @@
       <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
@@ -747,15 +751,39 @@
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -763,18 +791,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -933,9 +961,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="K2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>